--- a/12_CNPMNC...xlsx
+++ b/12_CNPMNC...xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCD3FFA-1C15-4D5D-A5B7-633C6F80C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB0F011-BB12-4C8B-9FBC-27B4164C0DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -327,14 +327,47 @@
     <t>Thêm thể thoại đồ uống</t>
   </si>
   <si>
-    <t>Trang chủ</t>
+    <t>Trang chủ - Home</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo dõi đơn hàng </t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị các phương thức liên hệ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -358,13 +391,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
@@ -379,7 +405,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,8 +436,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -540,43 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -610,19 +635,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,34 +653,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -672,24 +689,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1111,249 +1142,249 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1366,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1382,140 +1413,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="16">
-        <v>45910</v>
-      </c>
-      <c r="F4" s="7"/>
+      <c r="E4" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F4" s="26">
+        <v>45976</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="16">
-        <v>45910</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F5" s="26">
+        <v>45976</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="16">
-        <v>45910</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="E6" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F6" s="26">
+        <v>45976</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="16">
-        <v>45910</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="E7" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F7" s="26">
+        <v>45976</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="16">
-        <v>45910</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
+      <c r="E8" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F8" s="26">
+        <v>45976</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1531,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -1544,583 +1569,583 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <f>SUM(C7:C28)</f>
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="26">
-        <v>2</v>
-      </c>
-      <c r="G7" s="20"/>
+      <c r="C7" s="22">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="22">
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="22">
         <v>5</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="22">
         <v>6</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="21">
         <v>12</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="22">
         <v>13</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="22">
         <v>14</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="22">
         <v>15</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="A23" s="22">
         <v>16</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="22">
         <v>18</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="21">
         <v>19</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+      <c r="A29" s="22">
         <v>20</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="22">
         <v>21</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="22">
         <v>22</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="22">
         <v>23</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="21">
         <v>24</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+      <c r="A35" s="22">
         <v>25</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
+      <c r="A36" s="22">
         <v>26</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
+      <c r="A37" s="22">
         <v>27</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="21">
         <v>28</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="A41" s="21">
         <v>29</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+      <c r="A42" s="22">
         <v>30</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
+      <c r="A43" s="22">
         <v>31</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
+      <c r="A44" s="22">
         <v>32</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
+      <c r="A45" s="22">
         <v>33</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+      <c r="A46" s="22">
         <v>34</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="26">
+      <c r="A47" s="22">
         <v>35</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="26">
+      <c r="A48" s="22">
         <v>36</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
+      <c r="A49" s="22">
         <v>37</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+      <c r="A50" s="22">
         <v>38</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="26">
+      <c r="A51" s="22">
         <v>39</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="26">
+      <c r="A52" s="22">
         <v>40</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="26">
+      <c r="A53" s="22">
         <v>41</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
+      <c r="A54" s="22">
         <v>42</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C54" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="26">
+      <c r="A55" s="22">
         <v>43</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="A56" s="22">
         <v>44</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="26">
+      <c r="C56" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="26">
+      <c r="A57" s="22">
         <v>45</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="22">
         <v>2</v>
       </c>
     </row>
@@ -2134,11 +2159,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2156,305 +2181,1720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="7"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <v>45923</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="26">
         <v>45930</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="26">
         <v>45923</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="26">
         <v>45930</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>5</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F7" s="26">
+        <v>45930</v>
+      </c>
+      <c r="G7" s="26">
+        <v>45923</v>
+      </c>
+      <c r="H7" s="26">
+        <v>45930</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="B8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="18">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F8" s="26">
+        <v>45930</v>
+      </c>
+      <c r="G8" s="26">
+        <v>45923</v>
+      </c>
+      <c r="H8" s="26">
+        <v>45930</v>
+      </c>
+      <c r="I8" s="18">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F9" s="26">
+        <v>45930</v>
+      </c>
+      <c r="G9" s="26">
+        <v>45923</v>
+      </c>
+      <c r="H9" s="26">
+        <v>45930</v>
+      </c>
+      <c r="I9" s="18">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F10" s="26">
+        <v>45930</v>
+      </c>
+      <c r="G10" s="26">
+        <v>45923</v>
+      </c>
+      <c r="H10" s="26">
+        <v>45930</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="26">
+        <v>45923</v>
+      </c>
+      <c r="F11" s="26">
+        <v>45930</v>
+      </c>
+      <c r="G11" s="26">
+        <v>45923</v>
+      </c>
+      <c r="H11" s="26">
+        <v>45930</v>
+      </c>
+      <c r="I11" s="18">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="18">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="30">
-        <v>45923</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="E13" s="26">
         <v>45930</v>
       </c>
-      <c r="G7" s="30">
-        <v>45923</v>
-      </c>
-      <c r="H7" s="30">
+      <c r="F13" s="26">
+        <v>45935</v>
+      </c>
+      <c r="G13" s="26">
         <v>45930</v>
       </c>
-      <c r="I7" s="21">
-        <v>3</v>
-      </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="H13" s="26">
+        <v>45935</v>
+      </c>
+      <c r="I13" s="18">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>8</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="26">
+        <v>45930</v>
+      </c>
+      <c r="F14" s="26">
+        <v>45935</v>
+      </c>
+      <c r="G14" s="26">
+        <v>45930</v>
+      </c>
+      <c r="H14" s="26">
+        <v>45935</v>
+      </c>
+      <c r="I14" s="18">
+        <v>2</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="26">
+        <v>45930</v>
+      </c>
+      <c r="F15" s="26">
+        <v>45935</v>
+      </c>
+      <c r="G15" s="26">
+        <v>45930</v>
+      </c>
+      <c r="H15" s="26">
+        <v>45935</v>
+      </c>
+      <c r="I15" s="18">
+        <v>2</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>10</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="26">
+        <v>45930</v>
+      </c>
+      <c r="F16" s="26">
+        <v>45935</v>
+      </c>
+      <c r="G16" s="26">
+        <v>45930</v>
+      </c>
+      <c r="H16" s="26">
+        <v>45935</v>
+      </c>
+      <c r="I16" s="18">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>11</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26">
+        <v>45930</v>
+      </c>
+      <c r="F17" s="26">
+        <v>45935</v>
+      </c>
+      <c r="G17" s="26">
+        <v>45930</v>
+      </c>
+      <c r="H17" s="26">
+        <v>45935</v>
+      </c>
+      <c r="I17" s="18">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>19</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="26">
+        <v>45935</v>
+      </c>
+      <c r="F19" s="26">
+        <v>45941</v>
+      </c>
+      <c r="G19" s="26">
+        <v>45935</v>
+      </c>
+      <c r="H19" s="26">
+        <v>45941</v>
+      </c>
+      <c r="I19" s="18">
+        <v>2</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>20</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="26">
+        <v>45935</v>
+      </c>
+      <c r="F20" s="26">
+        <v>45941</v>
+      </c>
+      <c r="G20" s="26">
+        <v>45935</v>
+      </c>
+      <c r="H20" s="26">
+        <v>45941</v>
+      </c>
+      <c r="I20" s="18">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>21</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="26">
+        <v>45935</v>
+      </c>
+      <c r="F21" s="26">
+        <v>45941</v>
+      </c>
+      <c r="G21" s="26">
+        <v>45935</v>
+      </c>
+      <c r="H21" s="26">
+        <v>45941</v>
+      </c>
+      <c r="I21" s="18">
+        <v>2</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>22</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="18">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="26">
+        <v>45935</v>
+      </c>
+      <c r="F22" s="26">
+        <v>45941</v>
+      </c>
+      <c r="G22" s="26">
+        <v>45935</v>
+      </c>
+      <c r="H22" s="26">
+        <v>45941</v>
+      </c>
+      <c r="I22" s="18">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>23</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="18">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="26">
+        <v>45935</v>
+      </c>
+      <c r="F23" s="26">
+        <v>45941</v>
+      </c>
+      <c r="G23" s="26">
+        <v>45935</v>
+      </c>
+      <c r="H23" s="26">
+        <v>45941</v>
+      </c>
+      <c r="I23" s="18">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>12</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="26">
+        <v>45941</v>
+      </c>
+      <c r="F25" s="26">
+        <v>45945</v>
+      </c>
+      <c r="G25" s="26">
+        <v>45941</v>
+      </c>
+      <c r="H25" s="26">
+        <v>45945</v>
+      </c>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>13</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="26">
+        <v>45941</v>
+      </c>
+      <c r="F26" s="26">
+        <v>45945</v>
+      </c>
+      <c r="G26" s="26">
+        <v>45941</v>
+      </c>
+      <c r="H26" s="26">
+        <v>45945</v>
+      </c>
+      <c r="I26" s="18">
+        <v>2</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>14</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="26">
+        <v>45941</v>
+      </c>
+      <c r="F27" s="26">
+        <v>45945</v>
+      </c>
+      <c r="G27" s="26">
+        <v>45941</v>
+      </c>
+      <c r="H27" s="26">
+        <v>45945</v>
+      </c>
+      <c r="I27" s="18">
+        <v>2</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>15</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="26">
+        <v>45941</v>
+      </c>
+      <c r="F28" s="26">
+        <v>45945</v>
+      </c>
+      <c r="G28" s="26">
+        <v>45941</v>
+      </c>
+      <c r="H28" s="26">
+        <v>45945</v>
+      </c>
+      <c r="I28" s="18">
+        <v>2</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>16</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="26">
+        <v>45941</v>
+      </c>
+      <c r="F29" s="26">
+        <v>45945</v>
+      </c>
+      <c r="G29" s="26">
+        <v>45941</v>
+      </c>
+      <c r="H29" s="26">
+        <v>45945</v>
+      </c>
+      <c r="I29" s="18">
+        <v>2</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>19</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="26">
+        <v>45945</v>
+      </c>
+      <c r="F31" s="26">
+        <v>45950</v>
+      </c>
+      <c r="G31" s="26">
+        <v>45945</v>
+      </c>
+      <c r="H31" s="26">
+        <v>45950</v>
+      </c>
+      <c r="I31" s="18">
+        <v>2</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>20</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="26">
+        <v>45945</v>
+      </c>
+      <c r="F32" s="26">
+        <v>45950</v>
+      </c>
+      <c r="G32" s="26">
+        <v>45945</v>
+      </c>
+      <c r="H32" s="26">
+        <v>45950</v>
+      </c>
+      <c r="I32" s="18">
+        <v>2</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>21</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="26">
+        <v>45945</v>
+      </c>
+      <c r="F33" s="26">
+        <v>45950</v>
+      </c>
+      <c r="G33" s="26">
+        <v>45945</v>
+      </c>
+      <c r="H33" s="26">
+        <v>45950</v>
+      </c>
+      <c r="I33" s="18">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>22</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="26">
+        <v>45945</v>
+      </c>
+      <c r="F34" s="26">
+        <v>45950</v>
+      </c>
+      <c r="G34" s="26">
+        <v>45945</v>
+      </c>
+      <c r="H34" s="26">
+        <v>45950</v>
+      </c>
+      <c r="I34" s="18">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>23</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="18">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="26">
+        <v>45945</v>
+      </c>
+      <c r="F35" s="26">
+        <v>45950</v>
+      </c>
+      <c r="G35" s="26">
+        <v>45945</v>
+      </c>
+      <c r="H35" s="26">
+        <v>45950</v>
+      </c>
+      <c r="I35" s="18">
+        <v>2</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>24</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="18">
+        <v>2</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="26">
+        <v>45950</v>
+      </c>
+      <c r="F37" s="26">
+        <v>45955</v>
+      </c>
+      <c r="G37" s="26">
+        <v>45950</v>
+      </c>
+      <c r="H37" s="26">
+        <v>45955</v>
+      </c>
+      <c r="I37" s="18">
+        <v>2</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>25</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="26">
+        <v>45950</v>
+      </c>
+      <c r="F38" s="26">
+        <v>45955</v>
+      </c>
+      <c r="G38" s="26">
+        <v>45950</v>
+      </c>
+      <c r="H38" s="26">
+        <v>45955</v>
+      </c>
+      <c r="I38" s="18">
+        <v>2</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>26</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="26">
+        <v>45950</v>
+      </c>
+      <c r="F39" s="26">
+        <v>45955</v>
+      </c>
+      <c r="G39" s="26">
+        <v>45950</v>
+      </c>
+      <c r="H39" s="26">
+        <v>45955</v>
+      </c>
+      <c r="I39" s="18">
+        <v>2</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>27</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="26">
+        <v>45950</v>
+      </c>
+      <c r="F40" s="26">
+        <v>45955</v>
+      </c>
+      <c r="G40" s="26">
+        <v>45950</v>
+      </c>
+      <c r="H40" s="26">
+        <v>45955</v>
+      </c>
+      <c r="I40" s="18">
+        <v>2</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>28</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="26">
+        <v>45950</v>
+      </c>
+      <c r="F41" s="26">
+        <v>45955</v>
+      </c>
+      <c r="G41" s="26">
+        <v>45950</v>
+      </c>
+      <c r="H41" s="26">
+        <v>45955</v>
+      </c>
+      <c r="I41" s="18">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>29</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="26">
+        <v>45955</v>
+      </c>
+      <c r="F43" s="26">
+        <v>45960</v>
+      </c>
+      <c r="G43" s="26">
+        <v>45955</v>
+      </c>
+      <c r="H43" s="26">
+        <v>45960</v>
+      </c>
+      <c r="I43" s="18">
+        <v>2</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>30</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="26">
+        <v>45955</v>
+      </c>
+      <c r="F44" s="26">
+        <v>45960</v>
+      </c>
+      <c r="G44" s="26">
+        <v>45955</v>
+      </c>
+      <c r="H44" s="26">
+        <v>45960</v>
+      </c>
+      <c r="I44" s="18">
+        <v>2</v>
+      </c>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>31</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="18">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="26">
+        <v>45955</v>
+      </c>
+      <c r="F45" s="26">
+        <v>45960</v>
+      </c>
+      <c r="G45" s="26">
+        <v>45955</v>
+      </c>
+      <c r="H45" s="26">
+        <v>45960</v>
+      </c>
+      <c r="I45" s="18">
+        <v>2</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>32</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="18">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="26">
+        <v>45955</v>
+      </c>
+      <c r="F46" s="26">
+        <v>45960</v>
+      </c>
+      <c r="G46" s="26">
+        <v>45955</v>
+      </c>
+      <c r="H46" s="26">
+        <v>45960</v>
+      </c>
+      <c r="I46" s="18">
+        <v>4</v>
+      </c>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>33</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="18">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="26">
+        <v>45955</v>
+      </c>
+      <c r="F47" s="26">
+        <v>45960</v>
+      </c>
+      <c r="G47" s="26">
+        <v>45955</v>
+      </c>
+      <c r="H47" s="26">
+        <v>45960</v>
+      </c>
+      <c r="I47" s="18">
+        <v>4</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>34</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="18">
+        <v>2</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="26">
+        <v>45960</v>
+      </c>
+      <c r="F49" s="26">
+        <v>45966</v>
+      </c>
+      <c r="G49" s="26">
+        <v>45960</v>
+      </c>
+      <c r="H49" s="26">
+        <v>45966</v>
+      </c>
+      <c r="I49" s="18">
+        <v>2</v>
+      </c>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>35</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="18">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="26">
+        <v>45960</v>
+      </c>
+      <c r="F50" s="26">
+        <v>45966</v>
+      </c>
+      <c r="G50" s="26">
+        <v>45960</v>
+      </c>
+      <c r="H50" s="26">
+        <v>45966</v>
+      </c>
+      <c r="I50" s="18">
+        <v>2</v>
+      </c>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>36</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="18">
+        <v>4</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="26">
+        <v>45960</v>
+      </c>
+      <c r="F51" s="26">
+        <v>45966</v>
+      </c>
+      <c r="G51" s="26">
+        <v>45960</v>
+      </c>
+      <c r="H51" s="26">
+        <v>45966</v>
+      </c>
+      <c r="I51" s="18">
+        <v>4</v>
+      </c>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>37</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="18">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="26">
+        <v>45960</v>
+      </c>
+      <c r="F52" s="26">
+        <v>45966</v>
+      </c>
+      <c r="G52" s="26">
+        <v>45960</v>
+      </c>
+      <c r="H52" s="26">
+        <v>45966</v>
+      </c>
+      <c r="I52" s="18">
+        <v>2</v>
+      </c>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>38</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="18">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="26">
+        <v>45960</v>
+      </c>
+      <c r="F53" s="26">
+        <v>45966</v>
+      </c>
+      <c r="G53" s="26">
+        <v>45960</v>
+      </c>
+      <c r="H53" s="26">
+        <v>45966</v>
+      </c>
+      <c r="I53" s="18">
+        <v>2</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
+        <v>39</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="18">
+        <v>2</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="26">
+        <v>45966</v>
+      </c>
+      <c r="F55" s="26">
+        <v>45972</v>
+      </c>
+      <c r="G55" s="26">
+        <v>45966</v>
+      </c>
+      <c r="H55" s="26">
+        <v>45972</v>
+      </c>
+      <c r="I55" s="18">
+        <v>2</v>
+      </c>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <v>40</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="18">
+        <v>2</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="26">
+        <v>45966</v>
+      </c>
+      <c r="F56" s="26">
+        <v>45972</v>
+      </c>
+      <c r="G56" s="26">
+        <v>45966</v>
+      </c>
+      <c r="H56" s="26">
+        <v>45972</v>
+      </c>
+      <c r="I56" s="18">
+        <v>2</v>
+      </c>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
+        <v>41</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="18">
+        <v>4</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="26">
+        <v>45966</v>
+      </c>
+      <c r="F57" s="26">
+        <v>45972</v>
+      </c>
+      <c r="G57" s="26">
+        <v>45966</v>
+      </c>
+      <c r="H57" s="26">
+        <v>45972</v>
+      </c>
+      <c r="I57" s="18">
+        <v>4</v>
+      </c>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>42</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="18">
+        <v>4</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="26">
+        <v>45966</v>
+      </c>
+      <c r="F58" s="26">
+        <v>45972</v>
+      </c>
+      <c r="G58" s="26">
+        <v>45966</v>
+      </c>
+      <c r="H58" s="26">
+        <v>45972</v>
+      </c>
+      <c r="I58" s="18">
+        <v>4</v>
+      </c>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>43</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="18">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="26">
+        <v>45966</v>
+      </c>
+      <c r="F59" s="26">
+        <v>45972</v>
+      </c>
+      <c r="G59" s="26">
+        <v>45966</v>
+      </c>
+      <c r="H59" s="26">
+        <v>45972</v>
+      </c>
+      <c r="I59" s="18">
+        <v>2</v>
+      </c>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <v>44</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="18">
+        <v>2</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="26">
+        <v>45972</v>
+      </c>
+      <c r="F61" s="26">
+        <v>45976</v>
+      </c>
+      <c r="G61" s="26">
+        <v>45972</v>
+      </c>
+      <c r="H61" s="26">
+        <v>45976</v>
+      </c>
+      <c r="I61" s="18">
+        <v>2</v>
+      </c>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>45</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="18">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="26">
+        <v>45972</v>
+      </c>
+      <c r="F62" s="26">
+        <v>45976</v>
+      </c>
+      <c r="G62" s="26">
+        <v>45972</v>
+      </c>
+      <c r="H62" s="26">
+        <v>45976</v>
+      </c>
+      <c r="I62" s="18">
+        <v>2</v>
+      </c>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="18">
+        <v>17</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="18">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="30">
-        <v>45923</v>
-      </c>
-      <c r="F8" s="30">
-        <v>45930</v>
-      </c>
-      <c r="G8" s="30">
-        <v>45923</v>
-      </c>
-      <c r="H8" s="30">
-        <v>45930</v>
-      </c>
-      <c r="I8" s="21">
+      <c r="D63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="26">
+        <v>45972</v>
+      </c>
+      <c r="F63" s="26">
+        <v>45976</v>
+      </c>
+      <c r="G63" s="26">
+        <v>45972</v>
+      </c>
+      <c r="H63" s="26">
+        <v>45976</v>
+      </c>
+      <c r="I63" s="18">
         <v>6</v>
       </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="21">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="30">
-        <v>45923</v>
-      </c>
-      <c r="F9" s="30">
-        <v>45930</v>
-      </c>
-      <c r="G9" s="30">
-        <v>45923</v>
-      </c>
-      <c r="H9" s="30">
-        <v>45930</v>
-      </c>
-      <c r="I9" s="21">
-        <v>3</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="21">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="18">
+        <v>18</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="18">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="30">
-        <v>45923</v>
-      </c>
-      <c r="F10" s="30">
-        <v>45930</v>
-      </c>
-      <c r="G10" s="30">
-        <v>45923</v>
-      </c>
-      <c r="H10" s="30">
-        <v>45930</v>
-      </c>
-      <c r="I10" s="21">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="21">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="30">
-        <v>45923</v>
-      </c>
-      <c r="F11" s="30">
-        <v>45930</v>
-      </c>
-      <c r="G11" s="30">
-        <v>45923</v>
-      </c>
-      <c r="H11" s="30">
-        <v>45930</v>
-      </c>
-      <c r="I11" s="21">
-        <v>2</v>
-      </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="E64" s="26">
+        <v>45972</v>
+      </c>
+      <c r="F64" s="26">
+        <v>45976</v>
+      </c>
+      <c r="G64" s="26">
+        <v>45972</v>
+      </c>
+      <c r="H64" s="26">
+        <v>45976</v>
+      </c>
+      <c r="I64" s="18">
+        <v>2</v>
+      </c>
+      <c r="J64" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A60:J60"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
